--- a/DataConfig/Datas/phone.xlsx
+++ b/DataConfig/Datas/phone.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20205" windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
     <sheet name="news" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -275,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1377,7 +1390,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1385,7 +1398,7 @@
     <col min="1" max="1" width="14.425" customWidth="1"/>
     <col min="2" max="2" width="12.4916666666667" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="53.65" customWidth="1"/>
+    <col min="4" max="4" width="55.7666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
@@ -1522,13 +1535,15 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="7" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="50.75" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
     <col min="8" max="8" width="16.8416666666667" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>

--- a/DataConfig/Datas/phone.xlsx
+++ b/DataConfig/Datas/phone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
@@ -195,8 +195,7 @@
 总之，新的一年意味着更多的机遇，也意味着更多的挑战，让我们祝福一下打工人们能在新的一年里旗开得胜吧。</t>
   </si>
   <si>
-    <t xml:space="preserve">
-懵懵懂懂猫猫头</t>
+    <t>懵懵懂懂猫猫头</t>
   </si>
   <si>
     <t>结婚干嘛，多在高新玩几年不好。</t>
@@ -1389,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1534,8 +1533,8 @@
   <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
